--- a/data/contacts.xlsx
+++ b/data/contacts.xlsx
@@ -8,17 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ai\whatsapp\auto_whatsapper\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA444425-506F-4C45-9617-BD4DBB17E84B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5F7B30F-F245-43C1-AA79-DF915BFA71C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -358,7 +369,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A2" sqref="A2:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/contacts.xlsx
+++ b/data/contacts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ai\whatsapp\auto_whatsapper\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5F7B30F-F245-43C1-AA79-DF915BFA71C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11A85444-A27C-4C99-8A62-CAE23F385C9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,9 +36,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>contacts</t>
+  </si>
+  <si>
+    <t>HUJI temp</t>
   </si>
 </sst>
 </file>
@@ -366,10 +369,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -382,6 +385,11 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
